--- a/Code/Results/Cases/Case_5_165/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_165/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.170918000456481</v>
+        <v>0.9168783282298989</v>
       </c>
       <c r="C2">
-        <v>0.09173805179457872</v>
+        <v>0.1103637748559407</v>
       </c>
       <c r="D2">
-        <v>0.08489989512518292</v>
+        <v>0.121236058883909</v>
       </c>
       <c r="E2">
-        <v>0.05881527903273209</v>
+        <v>0.1322696356981972</v>
       </c>
       <c r="F2">
-        <v>0.9074309974329111</v>
+        <v>1.940048721761194</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06774919842816729</v>
+        <v>0.1762184897146213</v>
       </c>
       <c r="K2">
-        <v>0.9326285682001867</v>
+        <v>0.4782845967818332</v>
       </c>
       <c r="L2">
-        <v>0.1912270643657052</v>
+        <v>0.263171286780711</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.066185737269106</v>
+        <v>2.252590438682947</v>
       </c>
       <c r="O2">
-        <v>2.339239215908776</v>
+        <v>5.132683292418307</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.026367612526457</v>
+        <v>0.8797396025435376</v>
       </c>
       <c r="C3">
-        <v>0.08884643581097862</v>
+        <v>0.1093442579316104</v>
       </c>
       <c r="D3">
-        <v>0.07655745486890453</v>
+        <v>0.1194899340974089</v>
       </c>
       <c r="E3">
-        <v>0.05657089546072136</v>
+        <v>0.1323217267412211</v>
       </c>
       <c r="F3">
-        <v>0.8889590093757249</v>
+        <v>1.946675811283775</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06817788280060455</v>
+        <v>0.1771558591426654</v>
       </c>
       <c r="K3">
-        <v>0.8108481822838201</v>
+        <v>0.4443327767251333</v>
       </c>
       <c r="L3">
-        <v>0.1725189714553039</v>
+        <v>0.2593479686275089</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.113035164764018</v>
+        <v>2.27298144758604</v>
       </c>
       <c r="O3">
-        <v>2.316550827710699</v>
+        <v>5.157466130098129</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9381122459351161</v>
+        <v>0.8572861856528959</v>
       </c>
       <c r="C4">
-        <v>0.08707254589375424</v>
+        <v>0.1087140804762328</v>
       </c>
       <c r="D4">
-        <v>0.07148563882469716</v>
+        <v>0.1184611853798785</v>
       </c>
       <c r="E4">
-        <v>0.05525134865493442</v>
+        <v>0.1323975060883154</v>
       </c>
       <c r="F4">
-        <v>0.8789534959729792</v>
+        <v>1.951551618945111</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06851672586411262</v>
+        <v>0.1777840706764238</v>
       </c>
       <c r="K4">
-        <v>0.7362934289641885</v>
+        <v>0.4236228971695937</v>
       </c>
       <c r="L4">
-        <v>0.1611698812184557</v>
+        <v>0.2571021721292581</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.142984569141513</v>
+        <v>2.286138749727554</v>
       </c>
       <c r="O4">
-        <v>2.306300594190162</v>
+        <v>5.174836045806416</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9022592488945236</v>
+        <v>0.8482249817101319</v>
       </c>
       <c r="C5">
-        <v>0.08634988291468915</v>
+        <v>0.1084562410388159</v>
       </c>
       <c r="D5">
-        <v>0.06943079542659802</v>
+        <v>0.1180529336918141</v>
       </c>
       <c r="E5">
-        <v>0.05472786695151832</v>
+        <v>0.1324394302075849</v>
       </c>
       <c r="F5">
-        <v>0.8751998592084576</v>
+        <v>1.953741668300609</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06867339348226054</v>
+        <v>0.1780533363990404</v>
       </c>
       <c r="K5">
-        <v>0.7059562616921369</v>
+        <v>0.4152183855656375</v>
       </c>
       <c r="L5">
-        <v>0.1565774793041754</v>
+        <v>0.2562126944634073</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.155481129502153</v>
+        <v>2.291660731319875</v>
       </c>
       <c r="O5">
-        <v>2.303015633627723</v>
+        <v>5.182456355751597</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8963122493082381</v>
+        <v>0.8467257580255705</v>
       </c>
       <c r="C6">
-        <v>0.08622989292224048</v>
+        <v>0.1084133648533125</v>
       </c>
       <c r="D6">
-        <v>0.06909029211141871</v>
+        <v>0.117985808354149</v>
       </c>
       <c r="E6">
-        <v>0.05464179021122817</v>
+        <v>0.1324470595755045</v>
       </c>
       <c r="F6">
-        <v>0.8745957703991536</v>
+        <v>1.954117599665928</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06870051834133939</v>
+        <v>0.1780988495499329</v>
       </c>
       <c r="K6">
-        <v>0.7009211883281949</v>
+        <v>0.4138249492640398</v>
       </c>
       <c r="L6">
-        <v>0.1558168119077763</v>
+        <v>0.2560665532878161</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.157573644069507</v>
+        <v>2.292587334124468</v>
       </c>
       <c r="O6">
-        <v>2.302523100832516</v>
+        <v>5.183754448296355</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9376282849242159</v>
+        <v>0.8571636227548254</v>
       </c>
       <c r="C7">
-        <v>0.08706279918534676</v>
+        <v>0.1087106073414432</v>
       </c>
       <c r="D7">
-        <v>0.07145787898988232</v>
+        <v>0.1184556350450947</v>
       </c>
       <c r="E7">
-        <v>0.05524423172773929</v>
+        <v>0.132398026736297</v>
       </c>
       <c r="F7">
-        <v>0.8789015784089713</v>
+        <v>1.951580331961082</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06851876403867152</v>
+        <v>0.1777876483515044</v>
       </c>
       <c r="K7">
-        <v>0.735884124670946</v>
+        <v>0.4235094087985942</v>
       </c>
       <c r="L7">
-        <v>0.1611078179367809</v>
+        <v>0.257090072093213</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.143151927433765</v>
+        <v>2.286212572078823</v>
       </c>
       <c r="O7">
-        <v>2.306252723036891</v>
+        <v>5.174936621062329</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.120964898894329</v>
+        <v>0.904000713041512</v>
       </c>
       <c r="C8">
-        <v>0.09074058008320662</v>
+        <v>0.110013124687498</v>
       </c>
       <c r="D8">
-        <v>0.08201249276298483</v>
+        <v>0.1206250292390791</v>
       </c>
       <c r="E8">
-        <v>0.05802898118310829</v>
+        <v>0.1322785252059617</v>
       </c>
       <c r="F8">
-        <v>0.9007768800051323</v>
+        <v>1.942166452186164</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06788104637790937</v>
+        <v>0.1765307776212097</v>
       </c>
       <c r="K8">
-        <v>0.8905867054693601</v>
+        <v>0.46654996979629</v>
       </c>
       <c r="L8">
-        <v>0.1847465629967076</v>
+        <v>0.2618319617222582</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.082090242013656</v>
+        <v>2.259489058074048</v>
       </c>
       <c r="O8">
-        <v>2.330631769470699</v>
+        <v>5.140781823717333</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.485120044347411</v>
+        <v>0.9985964627636008</v>
       </c>
       <c r="C9">
-        <v>0.09797452823603692</v>
+        <v>0.1125334978337804</v>
       </c>
       <c r="D9">
-        <v>0.1031462623385266</v>
+        <v>0.1252209016905397</v>
       </c>
       <c r="E9">
-        <v>0.06397669614286272</v>
+        <v>0.1323904215225511</v>
       </c>
       <c r="F9">
-        <v>0.9548659622490092</v>
+        <v>1.930096956476284</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06725102045136566</v>
+        <v>0.1744829630837188</v>
       </c>
       <c r="K9">
-        <v>1.196212625520275</v>
+        <v>0.5520164383820827</v>
       </c>
       <c r="L9">
-        <v>0.2323017536146352</v>
+        <v>0.2719334341492328</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9720070442820088</v>
+        <v>2.212136269059211</v>
       </c>
       <c r="O9">
-        <v>2.409231607027436</v>
+        <v>5.090868847179308</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.756502550573259</v>
+        <v>1.06974152430513</v>
       </c>
       <c r="C10">
-        <v>0.1033171957807753</v>
+        <v>0.1143639177506444</v>
       </c>
       <c r="D10">
-        <v>0.118992939818142</v>
+        <v>0.128802893469711</v>
       </c>
       <c r="E10">
-        <v>0.06867669186513936</v>
+        <v>0.1326821564595129</v>
       </c>
       <c r="F10">
-        <v>1.002294101104411</v>
+        <v>1.925113754240101</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06719641879476157</v>
+        <v>0.1732313271046309</v>
       </c>
       <c r="K10">
-        <v>1.422914198052666</v>
+        <v>0.6154363994871801</v>
       </c>
       <c r="L10">
-        <v>0.2681317813797079</v>
+        <v>0.2798391457281326</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8974026230107155</v>
+        <v>2.180420048271353</v>
       </c>
       <c r="O10">
-        <v>2.48808844036364</v>
+        <v>5.064577286381677</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.881036113320391</v>
+        <v>1.102458693752141</v>
       </c>
       <c r="C11">
-        <v>0.1057573498270798</v>
+        <v>0.1151918697627963</v>
       </c>
       <c r="D11">
-        <v>0.1262841428428629</v>
+        <v>0.1304764475680713</v>
       </c>
       <c r="E11">
-        <v>0.07089441526272111</v>
+        <v>0.1328600511805362</v>
       </c>
       <c r="F11">
-        <v>1.025744461040503</v>
+        <v>1.923687794362877</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06726729548400812</v>
+        <v>0.1727165747196153</v>
       </c>
       <c r="K11">
-        <v>1.526702324942477</v>
+        <v>0.6444200335887729</v>
       </c>
       <c r="L11">
-        <v>0.2846632294575784</v>
+        <v>0.2835397588260236</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8649163884345352</v>
+        <v>2.16665771681649</v>
       </c>
       <c r="O11">
-        <v>2.529098676193854</v>
+        <v>5.054865695375895</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.928370058057283</v>
+        <v>1.114897916969227</v>
       </c>
       <c r="C12">
-        <v>0.1066830903172971</v>
+        <v>0.1155047009852908</v>
       </c>
       <c r="D12">
-        <v>0.1290580843959077</v>
+        <v>0.1311164599161998</v>
       </c>
       <c r="E12">
-        <v>0.07174635359813308</v>
+        <v>0.1329338835726119</v>
       </c>
       <c r="F12">
-        <v>1.03491226502662</v>
+        <v>1.923268521099914</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06730852618438732</v>
+        <v>0.172529484977364</v>
       </c>
       <c r="K12">
-        <v>1.566115422320024</v>
+        <v>0.6554141001139726</v>
       </c>
       <c r="L12">
-        <v>0.2909599496983049</v>
+        <v>0.2849559697561688</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8528317366297067</v>
+        <v>2.1615419278918</v>
       </c>
       <c r="O12">
-        <v>2.545416168253325</v>
+        <v>5.051511087788782</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.918167687327355</v>
+        <v>1.112216699417075</v>
       </c>
       <c r="C13">
-        <v>0.1064836344596216</v>
+        <v>0.1154373584383777</v>
       </c>
       <c r="D13">
-        <v>0.1284600741372515</v>
+        <v>0.1309783438316003</v>
       </c>
       <c r="E13">
-        <v>0.071562322497293</v>
+        <v>0.1329176952744682</v>
       </c>
       <c r="F13">
-        <v>1.032924720862439</v>
+        <v>1.923353454085117</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06729899594331812</v>
+        <v>0.1725694299011593</v>
       </c>
       <c r="K13">
-        <v>1.557621915531996</v>
+        <v>0.6530455140276672</v>
       </c>
       <c r="L13">
-        <v>0.2896021558971569</v>
+        <v>0.2846503040646411</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8554245834434182</v>
+        <v>2.162639447867329</v>
       </c>
       <c r="O13">
-        <v>2.541866051744364</v>
+        <v>5.052219204819778</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.884926660283298</v>
+        <v>1.103481079871131</v>
       </c>
       <c r="C14">
-        <v>0.105833474994796</v>
+        <v>0.1152176206345956</v>
       </c>
       <c r="D14">
-        <v>0.1265120913983537</v>
+        <v>0.1305289764124211</v>
       </c>
       <c r="E14">
-        <v>0.07096425751305446</v>
+        <v>0.13286599596724</v>
       </c>
       <c r="F14">
-        <v>1.026492829153511</v>
+        <v>1.923650882597471</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06727039540075808</v>
+        <v>0.172701025800297</v>
       </c>
       <c r="K14">
-        <v>1.529942549286005</v>
+        <v>0.6453241529434592</v>
       </c>
       <c r="L14">
-        <v>0.2851805112315446</v>
+        <v>0.2836559740643594</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8639177740282351</v>
+        <v>2.166234919632562</v>
       </c>
       <c r="O14">
-        <v>2.530425045140646</v>
+        <v>5.054583239345106</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.864589094813198</v>
+        <v>1.098136740470835</v>
       </c>
       <c r="C15">
-        <v>0.1054354653933913</v>
+        <v>0.1150829336737047</v>
       </c>
       <c r="D15">
-        <v>0.1253206111231293</v>
+        <v>0.1302545409571252</v>
       </c>
       <c r="E15">
-        <v>0.07059952656504009</v>
+        <v>0.1328351700292068</v>
       </c>
       <c r="F15">
-        <v>1.022591126962041</v>
+        <v>1.923848779300158</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0672547702072599</v>
+        <v>0.172782651983276</v>
       </c>
       <c r="K15">
-        <v>1.513003054300981</v>
+        <v>0.640596999477907</v>
       </c>
       <c r="L15">
-        <v>0.2824769947335284</v>
+        <v>0.2830488509347333</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8691486411841556</v>
+        <v>2.168449713990587</v>
       </c>
       <c r="O15">
-        <v>2.523521202882591</v>
+        <v>5.056073326548159</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.748387443441146</v>
+        <v>1.06761041293592</v>
       </c>
       <c r="C16">
-        <v>0.1031579476199269</v>
+        <v>0.1143097126996864</v>
       </c>
       <c r="D16">
-        <v>0.118518191329045</v>
+        <v>0.1286944042884954</v>
       </c>
       <c r="E16">
-        <v>0.06853341862663243</v>
+        <v>0.1326714372757891</v>
       </c>
       <c r="F16">
-        <v>1.000800810808173</v>
+        <v>1.925223847051029</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06719376561989776</v>
+        <v>0.1732660649201492</v>
       </c>
       <c r="K16">
-        <v>1.416146016484163</v>
+        <v>0.6135448861815007</v>
       </c>
       <c r="L16">
-        <v>0.267056355958303</v>
+        <v>0.2795993894301461</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.899555594902453</v>
+        <v>2.181332841567269</v>
       </c>
       <c r="O16">
-        <v>2.485515826851497</v>
+        <v>5.06525717613323</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.677392293548507</v>
+        <v>1.048973316645174</v>
       </c>
       <c r="C17">
-        <v>0.1017634697776728</v>
+        <v>0.1138341460391388</v>
       </c>
       <c r="D17">
-        <v>0.1143669844169324</v>
+        <v>0.1277485559650415</v>
       </c>
       <c r="E17">
-        <v>0.0672868034938503</v>
+        <v>0.1325825438171009</v>
       </c>
       <c r="F17">
-        <v>0.9879258719351185</v>
+        <v>1.926282632845499</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06718129047296983</v>
+        <v>0.173576599890648</v>
       </c>
       <c r="K17">
-        <v>1.356907424085023</v>
+        <v>0.5969830655724309</v>
       </c>
       <c r="L17">
-        <v>0.257657995037917</v>
+        <v>0.2775098730280234</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9185869188152376</v>
+        <v>2.189406684822848</v>
       </c>
       <c r="O17">
-        <v>2.463550547662408</v>
+        <v>5.071466812295171</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.636658139274857</v>
+        <v>1.038287019046692</v>
       </c>
       <c r="C18">
-        <v>0.1009623006731815</v>
+        <v>0.1135601699427227</v>
       </c>
       <c r="D18">
-        <v>0.1119870149715325</v>
+        <v>0.1272086827540591</v>
       </c>
       <c r="E18">
-        <v>0.06657723952422501</v>
+        <v>0.1325356692679556</v>
       </c>
       <c r="F18">
-        <v>0.9806958908469596</v>
+        <v>1.926970783114726</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06718308443799614</v>
+        <v>0.1737603539014714</v>
       </c>
       <c r="K18">
-        <v>1.322896105735396</v>
+        <v>0.5874697539451574</v>
       </c>
       <c r="L18">
-        <v>0.252273955305256</v>
+        <v>0.2763178598224982</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9296693373863958</v>
+        <v>2.194113188930113</v>
       </c>
       <c r="O18">
-        <v>2.451397183249156</v>
+        <v>5.075250099669944</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.622882894323368</v>
+        <v>1.034674560620715</v>
       </c>
       <c r="C19">
-        <v>0.1006911838853028</v>
+        <v>0.1134673308596987</v>
       </c>
       <c r="D19">
-        <v>0.1111824885523021</v>
+        <v>0.1270266063810084</v>
       </c>
       <c r="E19">
-        <v>0.06633825396457738</v>
+        <v>0.1325205299923837</v>
       </c>
       <c r="F19">
-        <v>0.978277528264428</v>
+        <v>1.927217382201775</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06718521385146303</v>
+        <v>0.1738234536612531</v>
       </c>
       <c r="K19">
-        <v>1.311390496867716</v>
+        <v>0.5842508945162592</v>
       </c>
       <c r="L19">
-        <v>0.2504546351797785</v>
+        <v>0.2759159552439741</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9334447818023497</v>
+        <v>2.19571748927908</v>
       </c>
       <c r="O19">
-        <v>2.447363345424634</v>
+        <v>5.076567421735319</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.684939316049565</v>
+        <v>1.050953830183715</v>
       </c>
       <c r="C20">
-        <v>0.101911819292404</v>
+        <v>0.1138848168754691</v>
       </c>
       <c r="D20">
-        <v>0.1148080835976515</v>
+        <v>0.1278488137176055</v>
       </c>
       <c r="E20">
-        <v>0.06741873134865273</v>
+        <v>0.1325915665564281</v>
       </c>
       <c r="F20">
-        <v>0.9892781568906202</v>
+        <v>1.926161731614343</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06718168576078298</v>
+        <v>0.1735430108194933</v>
       </c>
       <c r="K20">
-        <v>1.363207033202229</v>
+        <v>0.5987447990605688</v>
       </c>
       <c r="L20">
-        <v>0.2586562032964252</v>
+        <v>0.2777312900415438</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9165468562563275</v>
+        <v>2.188540727086463</v>
       </c>
       <c r="O20">
-        <v>2.465838716265011</v>
+        <v>5.070783881746451</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.894685414956541</v>
+        <v>1.106045594144035</v>
       </c>
       <c r="C21">
-        <v>0.1060243936897507</v>
+        <v>0.1152821819945586</v>
       </c>
       <c r="D21">
-        <v>0.1270839016691809</v>
+        <v>0.1306607967761693</v>
       </c>
       <c r="E21">
-        <v>0.07113958875380888</v>
+        <v>0.132881006017211</v>
       </c>
       <c r="F21">
-        <v>1.028374075063454</v>
+        <v>1.923560246414411</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06727840030094612</v>
+        <v>0.172662160383485</v>
       </c>
       <c r="K21">
-        <v>1.538069511800131</v>
+        <v>0.6475916041455321</v>
       </c>
       <c r="L21">
-        <v>0.2864782347809864</v>
+        <v>0.2839476303362432</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8614171539962046</v>
+        <v>2.165176244904252</v>
       </c>
       <c r="O21">
-        <v>2.533763758782158</v>
+        <v>5.053880103055064</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.032801756860692</v>
+        <v>1.14234196661414</v>
       </c>
       <c r="C22">
-        <v>0.1087223108840121</v>
+        <v>0.1161913742754948</v>
       </c>
       <c r="D22">
-        <v>0.1351827154426104</v>
+        <v>0.1325351277154567</v>
       </c>
       <c r="E22">
-        <v>0.07364245942675396</v>
+        <v>0.1331078553316303</v>
       </c>
       <c r="F22">
-        <v>1.055611458988921</v>
+        <v>1.922563496479938</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0674258122797653</v>
+        <v>0.1721321381181475</v>
       </c>
       <c r="K22">
-        <v>1.653006154864642</v>
+        <v>0.6796239055656201</v>
       </c>
       <c r="L22">
-        <v>0.3048766453628531</v>
+        <v>0.2880969787200627</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8266569075213592</v>
+        <v>2.150464064510033</v>
       </c>
       <c r="O22">
-        <v>2.582773742926179</v>
+        <v>5.044714795463818</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.958984623068829</v>
+        <v>1.122943575961983</v>
       </c>
       <c r="C23">
-        <v>0.1072813483154889</v>
+        <v>0.1157064993367882</v>
       </c>
       <c r="D23">
-        <v>0.1308529163641197</v>
+        <v>0.1315314406662083</v>
       </c>
       <c r="E23">
-        <v>0.07229989171234052</v>
+        <v>0.1329833433204861</v>
       </c>
       <c r="F23">
-        <v>1.04091382204831</v>
+        <v>1.923031184679459</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06733921326497594</v>
+        <v>0.1724108489036347</v>
       </c>
       <c r="K23">
-        <v>1.591596951626286</v>
+        <v>0.6625179763571225</v>
       </c>
       <c r="L23">
-        <v>0.2950362605772199</v>
+        <v>0.2858745095449962</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.845089953305199</v>
+        <v>2.158265185841299</v>
       </c>
       <c r="O23">
-        <v>2.556176689022379</v>
+        <v>5.049434388540476</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.681527053595545</v>
+        <v>1.050058351434927</v>
       </c>
       <c r="C24">
-        <v>0.101844748833912</v>
+        <v>0.113861910354295</v>
       </c>
       <c r="D24">
-        <v>0.1146086421343142</v>
+        <v>0.1278034750116888</v>
       </c>
       <c r="E24">
-        <v>0.06735906460269092</v>
+        <v>0.1325874741933823</v>
       </c>
       <c r="F24">
-        <v>0.9886662544927987</v>
+        <v>1.926216143593479</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06718147917071704</v>
+        <v>0.1735581801672268</v>
       </c>
       <c r="K24">
-        <v>1.360358838640565</v>
+        <v>0.597948293451708</v>
       </c>
       <c r="L24">
-        <v>0.2582048537709341</v>
+        <v>0.2776311585023024</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9174687298096256</v>
+        <v>2.188932024902792</v>
       </c>
       <c r="O24">
-        <v>2.464802760112462</v>
+        <v>5.071091970246869</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.386009617416789</v>
+        <v>0.9727146670326476</v>
       </c>
       <c r="C25">
-        <v>0.09601378270775029</v>
+        <v>0.111855363086022</v>
       </c>
       <c r="D25">
-        <v>0.09737695260560741</v>
+        <v>0.1239413156601188</v>
       </c>
       <c r="E25">
-        <v>0.062312225566167</v>
+        <v>0.1323232439732465</v>
       </c>
       <c r="F25">
-        <v>0.9389489515586789</v>
+        <v>1.93267909891658</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06735203600029749</v>
+        <v>0.174992449605444</v>
       </c>
       <c r="K25">
-        <v>1.113213423162591</v>
+        <v>0.5287837424393729</v>
       </c>
       <c r="L25">
-        <v>0.2192924523118904</v>
+        <v>0.269115322535697</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.000715087436646</v>
+        <v>2.224406232196885</v>
       </c>
       <c r="O25">
-        <v>2.384438846531197</v>
+        <v>5.102547192352432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_165/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_165/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9168783282298989</v>
+        <v>1.170918000456396</v>
       </c>
       <c r="C2">
-        <v>0.1103637748559407</v>
+        <v>0.09173805179443661</v>
       </c>
       <c r="D2">
-        <v>0.121236058883909</v>
+        <v>0.08489989512519713</v>
       </c>
       <c r="E2">
-        <v>0.1322696356981972</v>
+        <v>0.05881527903272143</v>
       </c>
       <c r="F2">
-        <v>1.940048721761194</v>
+        <v>0.907430997432904</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1762184897146213</v>
+        <v>0.06774919842822058</v>
       </c>
       <c r="K2">
-        <v>0.4782845967818332</v>
+        <v>0.9326285682001298</v>
       </c>
       <c r="L2">
-        <v>0.263171286780711</v>
+        <v>0.1912270643657052</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.252590438682947</v>
+        <v>1.066185737269098</v>
       </c>
       <c r="O2">
-        <v>5.132683292418307</v>
+        <v>2.339239215908719</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8797396025435376</v>
+        <v>1.026367612526798</v>
       </c>
       <c r="C3">
-        <v>0.1093442579316104</v>
+        <v>0.0888464358112131</v>
       </c>
       <c r="D3">
-        <v>0.1194899340974089</v>
+        <v>0.07655745486878374</v>
       </c>
       <c r="E3">
-        <v>0.1323217267412211</v>
+        <v>0.0565708954607409</v>
       </c>
       <c r="F3">
-        <v>1.946675811283775</v>
+        <v>0.8889590093757178</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1771558591426654</v>
+        <v>0.06817788280045889</v>
       </c>
       <c r="K3">
-        <v>0.4443327767251333</v>
+        <v>0.8108481822839622</v>
       </c>
       <c r="L3">
-        <v>0.2593479686275089</v>
+        <v>0.1725189714551902</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.27298144758604</v>
+        <v>1.113035164764057</v>
       </c>
       <c r="O3">
-        <v>5.157466130098129</v>
+        <v>2.316550827710671</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8572861856528959</v>
+        <v>0.9381122459350593</v>
       </c>
       <c r="C4">
-        <v>0.1087140804762328</v>
+        <v>0.08707254589391056</v>
       </c>
       <c r="D4">
-        <v>0.1184611853798785</v>
+        <v>0.07148563882498848</v>
       </c>
       <c r="E4">
-        <v>0.1323975060883154</v>
+        <v>0.05525134865492021</v>
       </c>
       <c r="F4">
-        <v>1.951551618945111</v>
+        <v>0.8789534959729437</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1777840706764238</v>
+        <v>0.06851672586401669</v>
       </c>
       <c r="K4">
-        <v>0.4236228971695937</v>
+        <v>0.7362934289641032</v>
       </c>
       <c r="L4">
-        <v>0.2571021721292581</v>
+        <v>0.1611698812183846</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.286138749727554</v>
+        <v>1.142984569141422</v>
       </c>
       <c r="O4">
-        <v>5.174836045806416</v>
+        <v>2.30630059419002</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8482249817101319</v>
+        <v>0.9022592488947794</v>
       </c>
       <c r="C5">
-        <v>0.1084562410388159</v>
+        <v>0.08634988291467494</v>
       </c>
       <c r="D5">
-        <v>0.1180529336918141</v>
+        <v>0.0694307954266975</v>
       </c>
       <c r="E5">
-        <v>0.1324394302075849</v>
+        <v>0.05472786695151477</v>
       </c>
       <c r="F5">
-        <v>1.953741668300609</v>
+        <v>0.8751998592084576</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1780533363990404</v>
+        <v>0.06867339348230672</v>
       </c>
       <c r="K5">
-        <v>0.4152183855656375</v>
+        <v>0.7059562616920374</v>
       </c>
       <c r="L5">
-        <v>0.2562126944634073</v>
+        <v>0.1565774793042607</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.291660731319875</v>
+        <v>1.155481129502117</v>
       </c>
       <c r="O5">
-        <v>5.182456355751597</v>
+        <v>2.303015633627638</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8467257580255705</v>
+        <v>0.8963122493083233</v>
       </c>
       <c r="C6">
-        <v>0.1084133648533125</v>
+        <v>0.08622989292208416</v>
       </c>
       <c r="D6">
-        <v>0.117985808354149</v>
+        <v>0.06909029211130502</v>
       </c>
       <c r="E6">
-        <v>0.1324470595755045</v>
+        <v>0.05464179021119797</v>
       </c>
       <c r="F6">
-        <v>1.954117599665928</v>
+        <v>0.8745957703991607</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1780988495499329</v>
+        <v>0.06870051834134117</v>
       </c>
       <c r="K6">
-        <v>0.4138249492640398</v>
+        <v>0.7009211883281239</v>
       </c>
       <c r="L6">
-        <v>0.2560665532878161</v>
+        <v>0.155816811907755</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.292587334124468</v>
+        <v>1.157573644069437</v>
       </c>
       <c r="O6">
-        <v>5.183754448296355</v>
+        <v>2.302523100832545</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8571636227548254</v>
+        <v>0.9376282849242159</v>
       </c>
       <c r="C7">
-        <v>0.1087106073414432</v>
+        <v>0.0870627991855244</v>
       </c>
       <c r="D7">
-        <v>0.1184556350450947</v>
+        <v>0.07145787899004574</v>
       </c>
       <c r="E7">
-        <v>0.132398026736297</v>
+        <v>0.0552442317277535</v>
       </c>
       <c r="F7">
-        <v>1.951580331961082</v>
+        <v>0.8789015784089642</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1777876483515044</v>
+        <v>0.06851876403873192</v>
       </c>
       <c r="K7">
-        <v>0.4235094087985942</v>
+        <v>0.7358841246709744</v>
       </c>
       <c r="L7">
-        <v>0.257090072093213</v>
+        <v>0.1611078179368164</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.286212572078823</v>
+        <v>1.143151927433687</v>
       </c>
       <c r="O7">
-        <v>5.174936621062329</v>
+        <v>2.306252723036835</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.904000713041512</v>
+        <v>1.120964898894442</v>
       </c>
       <c r="C8">
-        <v>0.110013124687498</v>
+        <v>0.09074058008311425</v>
       </c>
       <c r="D8">
-        <v>0.1206250292390791</v>
+        <v>0.08201249276282141</v>
       </c>
       <c r="E8">
-        <v>0.1322785252059617</v>
+        <v>0.05802898118308342</v>
       </c>
       <c r="F8">
-        <v>1.942166452186164</v>
+        <v>0.9007768800051323</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1765307776212097</v>
+        <v>0.06788104637779568</v>
       </c>
       <c r="K8">
-        <v>0.46654996979629</v>
+        <v>0.8905867054692749</v>
       </c>
       <c r="L8">
-        <v>0.2618319617222582</v>
+        <v>0.1847465629967573</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.259489058074048</v>
+        <v>1.082090242013592</v>
       </c>
       <c r="O8">
-        <v>5.140781823717333</v>
+        <v>2.330631769470671</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9985964627636008</v>
+        <v>1.485120044347298</v>
       </c>
       <c r="C9">
-        <v>0.1125334978337804</v>
+        <v>0.09797452823580244</v>
       </c>
       <c r="D9">
-        <v>0.1252209016905397</v>
+        <v>0.1031462623383561</v>
       </c>
       <c r="E9">
-        <v>0.1323904215225511</v>
+        <v>0.06397669614287693</v>
       </c>
       <c r="F9">
-        <v>1.930096956476284</v>
+        <v>0.954865962248995</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1744829630837188</v>
+        <v>0.06725102045136921</v>
       </c>
       <c r="K9">
-        <v>0.5520164383820827</v>
+        <v>1.19621262552036</v>
       </c>
       <c r="L9">
-        <v>0.2719334341492328</v>
+        <v>0.2323017536146352</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.212136269059211</v>
+        <v>0.9720070442819937</v>
       </c>
       <c r="O9">
-        <v>5.090868847179308</v>
+        <v>2.409231607027408</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.06974152430513</v>
+        <v>1.756502550573316</v>
       </c>
       <c r="C10">
-        <v>0.1143639177506444</v>
+        <v>0.1033171957806758</v>
       </c>
       <c r="D10">
-        <v>0.128802893469711</v>
+        <v>0.118992939818142</v>
       </c>
       <c r="E10">
-        <v>0.1326821564595129</v>
+        <v>0.06867669186516068</v>
       </c>
       <c r="F10">
-        <v>1.925113754240101</v>
+        <v>1.002294101104411</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1732313271046309</v>
+        <v>0.06719641879477223</v>
       </c>
       <c r="K10">
-        <v>0.6154363994871801</v>
+        <v>1.422914198052752</v>
       </c>
       <c r="L10">
-        <v>0.2798391457281326</v>
+        <v>0.2681317813796653</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.180420048271353</v>
+        <v>0.8974026230106951</v>
       </c>
       <c r="O10">
-        <v>5.064577286381677</v>
+        <v>2.488088440363668</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.102458693752141</v>
+        <v>1.881036113320391</v>
       </c>
       <c r="C11">
-        <v>0.1151918697627963</v>
+        <v>0.1057573498273214</v>
       </c>
       <c r="D11">
-        <v>0.1304764475680713</v>
+        <v>0.1262841428430335</v>
       </c>
       <c r="E11">
-        <v>0.1328600511805362</v>
+        <v>0.07089441526273887</v>
       </c>
       <c r="F11">
-        <v>1.923687794362877</v>
+        <v>1.025744461040503</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1727165747196153</v>
+        <v>0.06726729548416444</v>
       </c>
       <c r="K11">
-        <v>0.6444200335887729</v>
+        <v>1.526702324942448</v>
       </c>
       <c r="L11">
-        <v>0.2835397588260236</v>
+        <v>0.2846632294575073</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.16665771681649</v>
+        <v>0.8649163884346009</v>
       </c>
       <c r="O11">
-        <v>5.054865695375895</v>
+        <v>2.529098676193854</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.114897916969227</v>
+        <v>1.92837005805734</v>
       </c>
       <c r="C12">
-        <v>0.1155047009852908</v>
+        <v>0.1066830903173965</v>
       </c>
       <c r="D12">
-        <v>0.1311164599161998</v>
+        <v>0.1290580843960356</v>
       </c>
       <c r="E12">
-        <v>0.1329338835726119</v>
+        <v>0.07174635359813664</v>
       </c>
       <c r="F12">
-        <v>1.923268521099914</v>
+        <v>1.03491226502662</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.172529484977364</v>
+        <v>0.06730852618444771</v>
       </c>
       <c r="K12">
-        <v>0.6554141001139726</v>
+        <v>1.566115422320024</v>
       </c>
       <c r="L12">
-        <v>0.2849559697561688</v>
+        <v>0.2909599496983049</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.1615419278918</v>
+        <v>0.8528317366296339</v>
       </c>
       <c r="O12">
-        <v>5.051511087788782</v>
+        <v>2.545416168253297</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.112216699417075</v>
+        <v>1.918167687327326</v>
       </c>
       <c r="C13">
-        <v>0.1154373584383777</v>
+        <v>0.106483634459039</v>
       </c>
       <c r="D13">
-        <v>0.1309783438316003</v>
+        <v>0.1284600741373083</v>
       </c>
       <c r="E13">
-        <v>0.1329176952744682</v>
+        <v>0.07156232249727168</v>
       </c>
       <c r="F13">
-        <v>1.923353454085117</v>
+        <v>1.032924720862439</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1725694299011593</v>
+        <v>0.06729899594344957</v>
       </c>
       <c r="K13">
-        <v>0.6530455140276672</v>
+        <v>1.557621915532025</v>
       </c>
       <c r="L13">
-        <v>0.2846503040646411</v>
+        <v>0.2896021558971427</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.162639447867329</v>
+        <v>0.8554245834434058</v>
       </c>
       <c r="O13">
-        <v>5.052219204819778</v>
+        <v>2.541866051744364</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.103481079871131</v>
+        <v>1.884926660283298</v>
       </c>
       <c r="C14">
-        <v>0.1152176206345956</v>
+        <v>0.1058334749950305</v>
       </c>
       <c r="D14">
-        <v>0.1305289764124211</v>
+        <v>0.1265120913983964</v>
       </c>
       <c r="E14">
-        <v>0.13286599596724</v>
+        <v>0.07096425751307223</v>
       </c>
       <c r="F14">
-        <v>1.923650882597471</v>
+        <v>1.026492829153526</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.172701025800297</v>
+        <v>0.06727039540069768</v>
       </c>
       <c r="K14">
-        <v>0.6453241529434592</v>
+        <v>1.529942549285892</v>
       </c>
       <c r="L14">
-        <v>0.2836559740643594</v>
+        <v>0.2851805112314736</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.166234919632562</v>
+        <v>0.8639177740282165</v>
       </c>
       <c r="O14">
-        <v>5.054583239345106</v>
+        <v>2.530425045140646</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.098136740470835</v>
+        <v>1.864589094813226</v>
       </c>
       <c r="C15">
-        <v>0.1150829336737047</v>
+        <v>0.1054354653933913</v>
       </c>
       <c r="D15">
-        <v>0.1302545409571252</v>
+        <v>0.1253206111231862</v>
       </c>
       <c r="E15">
-        <v>0.1328351700292068</v>
+        <v>0.07059952656506852</v>
       </c>
       <c r="F15">
-        <v>1.923848779300158</v>
+        <v>1.022591126962055</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.172782651983276</v>
+        <v>0.0672547702071995</v>
       </c>
       <c r="K15">
-        <v>0.640596999477907</v>
+        <v>1.513003054300867</v>
       </c>
       <c r="L15">
-        <v>0.2830488509347333</v>
+        <v>0.282476994733571</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.168449713990587</v>
+        <v>0.8691486411841529</v>
       </c>
       <c r="O15">
-        <v>5.056073326548159</v>
+        <v>2.52352120288262</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.06761041293592</v>
+        <v>1.748387443440976</v>
       </c>
       <c r="C16">
-        <v>0.1143097126996864</v>
+        <v>0.1031579476192306</v>
       </c>
       <c r="D16">
-        <v>0.1286944042884954</v>
+        <v>0.1185181913291018</v>
       </c>
       <c r="E16">
-        <v>0.1326714372757891</v>
+        <v>0.06853341862660045</v>
       </c>
       <c r="F16">
-        <v>1.925223847051029</v>
+        <v>1.000800810808187</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1732660649201492</v>
+        <v>0.06719376561995816</v>
       </c>
       <c r="K16">
-        <v>0.6135448861815007</v>
+        <v>1.416146016484191</v>
       </c>
       <c r="L16">
-        <v>0.2795993894301461</v>
+        <v>0.2670563559583172</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.181332841567269</v>
+        <v>0.8995555949023926</v>
       </c>
       <c r="O16">
-        <v>5.06525717613323</v>
+        <v>2.485515826851554</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.048973316645174</v>
+        <v>1.677392293548365</v>
       </c>
       <c r="C17">
-        <v>0.1138341460391388</v>
+        <v>0.1017634697779144</v>
       </c>
       <c r="D17">
-        <v>0.1277485559650415</v>
+        <v>0.114366984416904</v>
       </c>
       <c r="E17">
-        <v>0.1325825438171009</v>
+        <v>0.06728680349382188</v>
       </c>
       <c r="F17">
-        <v>1.926282632845499</v>
+        <v>0.9879258719351185</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.173576599890648</v>
+        <v>0.06718129047313681</v>
       </c>
       <c r="K17">
-        <v>0.5969830655724309</v>
+        <v>1.356907424085023</v>
       </c>
       <c r="L17">
-        <v>0.2775098730280234</v>
+        <v>0.2576579950378317</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.189406684822848</v>
+        <v>0.9185869188151816</v>
       </c>
       <c r="O17">
-        <v>5.071466812295171</v>
+        <v>2.463550547662408</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.038287019046692</v>
+        <v>1.636658139274857</v>
       </c>
       <c r="C18">
-        <v>0.1135601699427227</v>
+        <v>0.1009623006731886</v>
       </c>
       <c r="D18">
-        <v>0.1272086827540591</v>
+        <v>0.1119870149712909</v>
       </c>
       <c r="E18">
-        <v>0.1325356692679556</v>
+        <v>0.06657723952427475</v>
       </c>
       <c r="F18">
-        <v>1.926970783114726</v>
+        <v>0.9806958908469454</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1737603539014714</v>
+        <v>0.0671830844379997</v>
       </c>
       <c r="K18">
-        <v>0.5874697539451574</v>
+        <v>1.322896105735509</v>
       </c>
       <c r="L18">
-        <v>0.2763178598224982</v>
+        <v>0.2522739553052418</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.194113188930113</v>
+        <v>0.929669337386434</v>
       </c>
       <c r="O18">
-        <v>5.075250099669944</v>
+        <v>2.451397183249128</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.034674560620715</v>
+        <v>1.622882894323283</v>
       </c>
       <c r="C19">
-        <v>0.1134673308596987</v>
+        <v>0.1006911838850684</v>
       </c>
       <c r="D19">
-        <v>0.1270266063810084</v>
+        <v>0.1111824885525294</v>
       </c>
       <c r="E19">
-        <v>0.1325205299923837</v>
+        <v>0.06633825396457027</v>
       </c>
       <c r="F19">
-        <v>1.927217382201775</v>
+        <v>0.9782775282644423</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1738234536612531</v>
+        <v>0.06718521385147369</v>
       </c>
       <c r="K19">
-        <v>0.5842508945162592</v>
+        <v>1.311390496867716</v>
       </c>
       <c r="L19">
-        <v>0.2759159552439741</v>
+        <v>0.2504546351797927</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.19571748927908</v>
+        <v>0.9334447818023133</v>
       </c>
       <c r="O19">
-        <v>5.076567421735319</v>
+        <v>2.447363345424662</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.050953830183715</v>
+        <v>1.684939316049537</v>
       </c>
       <c r="C20">
-        <v>0.1138848168754691</v>
+        <v>0.1019118192925177</v>
       </c>
       <c r="D20">
-        <v>0.1278488137176055</v>
+        <v>0.1148080835978078</v>
       </c>
       <c r="E20">
-        <v>0.1325915665564281</v>
+        <v>0.06741873134863496</v>
       </c>
       <c r="F20">
-        <v>1.926161731614343</v>
+        <v>0.9892781568906344</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1735430108194933</v>
+        <v>0.06718168576072259</v>
       </c>
       <c r="K20">
-        <v>0.5987447990605688</v>
+        <v>1.363207033202372</v>
       </c>
       <c r="L20">
-        <v>0.2777312900415438</v>
+        <v>0.2586562032964537</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.188540727086463</v>
+        <v>0.9165468562563426</v>
       </c>
       <c r="O20">
-        <v>5.070783881746451</v>
+        <v>2.465838716265068</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.106045594144035</v>
+        <v>1.894685414956484</v>
       </c>
       <c r="C21">
-        <v>0.1152821819945586</v>
+        <v>0.1060243936898431</v>
       </c>
       <c r="D21">
-        <v>0.1306607967761693</v>
+        <v>0.1270839016691667</v>
       </c>
       <c r="E21">
-        <v>0.132881006017211</v>
+        <v>0.07113958875379822</v>
       </c>
       <c r="F21">
-        <v>1.923560246414411</v>
+        <v>1.028374075063454</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.172662160383485</v>
+        <v>0.0672784003009852</v>
       </c>
       <c r="K21">
-        <v>0.6475916041455321</v>
+        <v>1.538069511800103</v>
       </c>
       <c r="L21">
-        <v>0.2839476303362432</v>
+        <v>0.2864782347809722</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.165176244904252</v>
+        <v>0.861417153996193</v>
       </c>
       <c r="O21">
-        <v>5.053880103055064</v>
+        <v>2.533763758782214</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.14234196661414</v>
+        <v>2.032801756860636</v>
       </c>
       <c r="C22">
-        <v>0.1161913742754948</v>
+        <v>0.1087223108843673</v>
       </c>
       <c r="D22">
-        <v>0.1325351277154567</v>
+        <v>0.1351827154426815</v>
       </c>
       <c r="E22">
-        <v>0.1331078553316303</v>
+        <v>0.07364245942675396</v>
       </c>
       <c r="F22">
-        <v>1.922563496479938</v>
+        <v>1.055611458988921</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1721321381181475</v>
+        <v>0.06742581227979727</v>
       </c>
       <c r="K22">
-        <v>0.6796239055656201</v>
+        <v>1.653006154864613</v>
       </c>
       <c r="L22">
-        <v>0.2880969787200627</v>
+        <v>0.3048766453628957</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.150464064510033</v>
+        <v>0.826656907521345</v>
       </c>
       <c r="O22">
-        <v>5.044714795463818</v>
+        <v>2.582773742926122</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.122943575961983</v>
+        <v>1.958984623068659</v>
       </c>
       <c r="C23">
-        <v>0.1157064993367882</v>
+        <v>0.1072813483160644</v>
       </c>
       <c r="D23">
-        <v>0.1315314406662083</v>
+        <v>0.1308529163639065</v>
       </c>
       <c r="E23">
-        <v>0.1329833433204861</v>
+        <v>0.07229989171234408</v>
       </c>
       <c r="F23">
-        <v>1.923031184679459</v>
+        <v>1.040913822048296</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1724108489036347</v>
+        <v>0.06733921326501147</v>
       </c>
       <c r="K23">
-        <v>0.6625179763571225</v>
+        <v>1.591596951626087</v>
       </c>
       <c r="L23">
-        <v>0.2858745095449962</v>
+        <v>0.2950362605771915</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.158265185841299</v>
+        <v>0.8450899533051839</v>
       </c>
       <c r="O23">
-        <v>5.049434388540476</v>
+        <v>2.556176689022294</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.050058351434927</v>
+        <v>1.68152705359563</v>
       </c>
       <c r="C24">
-        <v>0.113861910354295</v>
+        <v>0.1018447488339049</v>
       </c>
       <c r="D24">
-        <v>0.1278034750116888</v>
+        <v>0.1146086421342432</v>
       </c>
       <c r="E24">
-        <v>0.1325874741933823</v>
+        <v>0.06735906460265895</v>
       </c>
       <c r="F24">
-        <v>1.926216143593479</v>
+        <v>0.9886662544927844</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1735581801672268</v>
+        <v>0.06718147917080231</v>
       </c>
       <c r="K24">
-        <v>0.597948293451708</v>
+        <v>1.360358838640451</v>
       </c>
       <c r="L24">
-        <v>0.2776311585023024</v>
+        <v>0.2582048537709483</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.188932024902792</v>
+        <v>0.9174687298095581</v>
       </c>
       <c r="O24">
-        <v>5.071091970246869</v>
+        <v>2.464802760112434</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9727146670326476</v>
+        <v>1.386009617416647</v>
       </c>
       <c r="C25">
-        <v>0.111855363086022</v>
+        <v>0.09601378270750871</v>
       </c>
       <c r="D25">
-        <v>0.1239413156601188</v>
+        <v>0.0973769526055861</v>
       </c>
       <c r="E25">
-        <v>0.1323232439732465</v>
+        <v>0.06231222556616345</v>
       </c>
       <c r="F25">
-        <v>1.93267909891658</v>
+        <v>0.9389489515586718</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.174992449605444</v>
+        <v>0.06735203600023709</v>
       </c>
       <c r="K25">
-        <v>0.5287837424393729</v>
+        <v>1.113213423162591</v>
       </c>
       <c r="L25">
-        <v>0.269115322535697</v>
+        <v>0.2192924523118762</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.224406232196885</v>
+        <v>1.000715087436633</v>
       </c>
       <c r="O25">
-        <v>5.102547192352432</v>
+        <v>2.384438846531197</v>
       </c>
     </row>
   </sheetData>
